--- a/biology/Botanique/Vins_de_qualité_produits_dans_des_régions_déterminées/Vins_de_qualité_produits_dans_des_régions_déterminées.xlsx
+++ b/biology/Botanique/Vins_de_qualité_produits_dans_des_régions_déterminées/Vins_de_qualité_produits_dans_des_régions_déterminées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vins_de_qualit%C3%A9_produits_dans_des_r%C3%A9gions_d%C3%A9termin%C3%A9es</t>
+          <t>Vins_de_qualité_produits_dans_des_régions_déterminées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme Vin de qualité produit dans une région déterminée (VQPRD) a désigné, entre 1970[1] et 2009[2], certains vins produits sur le territoire de l'Union européenne. L'Europe divisait, pendant cette période, les vins en deux catégories : les « VQPRD » et les « Vins de table ».
-La mise en place, le 1er août 2009, de la réforme de l'organisation commune du marché vitivinicole, impose une nouvelle hiérarchie qui classe les vins en appellation d'origine protégée (AOP), indication géographique protégée (IGP) et vin sans indication géographique (VSIG)[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme Vin de qualité produit dans une région déterminée (VQPRD) a désigné, entre 1970 et 2009, certains vins produits sur le territoire de l'Union européenne. L'Europe divisait, pendant cette période, les vins en deux catégories : les « VQPRD » et les « Vins de table ».
+La mise en place, le 1er août 2009, de la réforme de l'organisation commune du marché vitivinicole, impose une nouvelle hiérarchie qui classe les vins en appellation d'origine protégée (AOP), indication géographique protégée (IGP) et vin sans indication géographique (VSIG). 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vins_de_qualit%C3%A9_produits_dans_des_r%C3%A9gions_d%C3%A9termin%C3%A9es</t>
+          <t>Vins_de_qualité_produits_dans_des_régions_déterminées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Dénomination par pays</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indication VQPRD regroupait et concernait certaines appellations d'origine de différents États européens :
 Allemagne : Qualitätswein, Qualitätswein garantierten Ursprungs et Qualitätswein mit Prädikat ;
@@ -545,7 +559,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vins_de_qualit%C3%A9_produits_dans_des_r%C3%A9gions_d%C3%A9termin%C3%A9es</t>
+          <t>Vins_de_qualité_produits_dans_des_régions_déterminées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,9 +577,11 @@
           <t>Objectifs réglementaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À partir de 2000, la réglementation européenne, précisait les domaines dans lesquels les États membres devaient prendre des dispositions spécifiques[4] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À partir de 2000, la réglementation européenne, précisait les domaines dans lesquels les États membres devaient prendre des dispositions spécifiques : 
 les listes d'agrément des variétés de vigne ;
 le cadastre viticole ;
 les méthodes de régulation de l'enrichissement et l'édulcoration des vins ;
@@ -583,7 +599,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vins_de_qualit%C3%A9_produits_dans_des_r%C3%A9gions_d%C3%A9termin%C3%A9es</t>
+          <t>Vins_de_qualité_produits_dans_des_régions_déterminées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,7 +617,9 @@
           <t>Autres appellations d'origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hors de l'Union européenne, les autres pays utilisant des dénominations notifiant l'origine sont :
 Afrique du Sud : Wine of Origin (WO) ;
@@ -613,7 +631,7 @@
 Chili : Denominación de Origen de Región Vitícola ;
 États-Unis : American Viticultural Area (AVA) ;
 Maroc : Appellation d'origine contrôlée (AOC) et Appellation d'origine garantie (AOG) ;
-Mercosur : Denominación de Origen Reconocida[5] et Indicación Geográfica Reconocida ;
+Mercosur : Denominación de Origen Reconocida et Indicación Geográfica Reconocida ;
 Nouvelle-Zélande : Geographical Indication (GI) ;
 Saint-Marin : Identificazione d’Origine (IO) ;
 Suisse : Appellation d'origine contrôlée (AOC) ;
